--- a/VHDL/William/Example.xlsx
+++ b/VHDL/William/Example.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CA8531-1569-4038-8707-0E7A286810CC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="177">
   <si>
     <t>Round Keys</t>
   </si>
@@ -556,7 +555,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -586,10 +585,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -869,11 +869,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:BA88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="AL3" sqref="AL3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,10 +904,12 @@
     <col min="33" max="34" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="9.140625" style="1"/>
+    <col min="37" max="37" width="9.140625" style="1"/>
+    <col min="38" max="53" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>175</v>
       </c>
@@ -914,7 +917,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -922,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1025,8 +1028,56 @@
       <c r="AJ3" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AL3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>59</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>48</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>12</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>98</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>30</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1129,8 +1180,72 @@
       <c r="AJ4" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AL4" s="3" t="str">
+        <f>AL3</f>
+        <v>6A</v>
+      </c>
+      <c r="AM4" s="3" t="str">
+        <f>AP3</f>
+        <v>4E</v>
+      </c>
+      <c r="AN4" s="3">
+        <f>AT3</f>
+        <v>98</v>
+      </c>
+      <c r="AO4" s="3" t="str">
+        <f>AX3</f>
+        <v>8B</v>
+      </c>
+      <c r="AP4" s="3">
+        <f>AM3</f>
+        <v>59</v>
+      </c>
+      <c r="AQ4" s="3">
+        <f>AQ3</f>
+        <v>48</v>
+      </c>
+      <c r="AR4" s="3" t="str">
+        <f>AU3</f>
+        <v>9E</v>
+      </c>
+      <c r="AS4" s="3" t="str">
+        <f>AY3</f>
+        <v>3D</v>
+      </c>
+      <c r="AT4" s="3" t="str">
+        <f>AN3</f>
+        <v>CB</v>
+      </c>
+      <c r="AU4" s="3">
+        <f>AR3</f>
+        <v>12</v>
+      </c>
+      <c r="AV4" s="3">
+        <f>AV3</f>
+        <v>30</v>
+      </c>
+      <c r="AW4" s="3" t="str">
+        <f>AZ3</f>
+        <v>F4</v>
+      </c>
+      <c r="AX4" s="3" t="str">
+        <f>AO3</f>
+        <v>BD</v>
+      </c>
+      <c r="AY4" s="3" t="str">
+        <f>AS3</f>
+        <v>A0</v>
+      </c>
+      <c r="AZ4" s="3" t="str">
+        <f>AW3</f>
+        <v>9B</v>
+      </c>
+      <c r="BA4" s="3" t="str">
+        <f>BA3</f>
+        <v>9B</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1234,7 +1349,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1338,7 +1453,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1442,7 +1557,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1546,7 +1661,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1650,7 +1765,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1754,7 +1869,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1858,7 +1973,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1962,7 +2077,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -2066,7 +2181,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>95</v>
       </c>
@@ -2075,54 +2190,54 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B16" s="1">
         <v>54</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>74</v>
+      <c r="C16" s="1">
+        <v>77</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="E16" s="1">
         <v>20</v>
       </c>
-      <c r="F16" s="1">
-        <v>77</v>
+      <c r="F16" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H16" s="1">
+        <v>65</v>
+      </c>
+      <c r="I16" s="1">
+        <v>20</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="1">
         <v>69</v>
-      </c>
-      <c r="I16" s="1">
-        <v>54</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K16" s="1">
-        <v>65</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="M16" s="1">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="N16" s="1">
         <v>20</v>
       </c>
       <c r="O16" s="1">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="P16" s="1">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>69</v>
@@ -2293,46 +2408,46 @@
         <v>166</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="1">
+        <v>54</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1">
-        <v>47</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I18" s="1">
+        <v>59</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="1">
         <v>22</v>
-      </c>
-      <c r="I18" s="1">
-        <v>74</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N18" s="1">
+        <v>47</v>
+      </c>
+      <c r="O18" s="1">
+        <v>74</v>
+      </c>
+      <c r="P18" s="1">
         <v>31</v>
-      </c>
-      <c r="N18" s="1">
-        <v>54</v>
-      </c>
-      <c r="O18" s="1">
-        <v>59</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>13</v>
@@ -2461,46 +2576,46 @@
         <v>63</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="1">
+        <v>20</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>84</v>
       </c>
       <c r="H21" s="1">
+        <v>30</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="1">
         <v>93</v>
-      </c>
-      <c r="I21" s="1">
-        <v>92</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K21" s="1">
-        <v>30</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>86</v>
       </c>
       <c r="M21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O21" s="1">
+        <v>92</v>
+      </c>
+      <c r="P21" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="N21" s="1">
-        <v>20</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>11</v>
@@ -2566,46 +2681,46 @@
         <v>63</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="G22" s="1">
         <v>93</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="1">
+        <v>20</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" s="1">
         <v>92</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P22" s="1">
         <v>30</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O22" s="1">
-        <v>20</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>87</v>
@@ -2620,16 +2735,16 @@
         <v>88</v>
       </c>
       <c r="C23" s="1">
+        <v>75</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="1">
         <v>84</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" s="1">
-        <v>75</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>65</v>
@@ -2638,10 +2753,10 @@
         <v>90</v>
       </c>
       <c r="I23" s="1">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>90</v>
@@ -2650,16 +2765,16 @@
         <v>6</v>
       </c>
       <c r="M23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O23" s="1">
+        <v>40</v>
+      </c>
+      <c r="P23" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O23" s="1">
-        <v>32</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>93</v>
@@ -2782,46 +2897,46 @@
         <v>58</v>
       </c>
       <c r="C25" s="1">
+        <v>47</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="1">
         <v>15</v>
-      </c>
-      <c r="D25" s="1">
-        <v>59</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" s="1">
-        <v>47</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>97</v>
       </c>
       <c r="H25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J25" s="1">
+        <v>59</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="I25" s="1">
-        <v>39</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O25" s="1">
+        <v>39</v>
+      </c>
+      <c r="P25" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>102</v>
@@ -2997,50 +3112,50 @@
       <c r="B28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="1">
+        <v>98</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="1">
         <v>59</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="G28" s="1">
+        <v>48</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="K28" s="1">
+        <v>12</v>
+      </c>
+      <c r="L28" s="1">
+        <v>30</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="O28" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H28" s="1">
-        <v>48</v>
-      </c>
-      <c r="I28" s="1">
-        <v>12</v>
-      </c>
-      <c r="J28" s="1">
-        <v>30</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L28" s="1">
-        <v>98</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="S28" s="2"/>
       <c r="T28" s="1" t="s">
